--- a/Data/Filters.xlsx
+++ b/Data/Filters.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://imperiallondon-my.sharepoint.com/personal/pf522_ic_ac_uk/Documents/lab3/Photoelectric/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="212" documentId="8_{B11BF44A-BC13-47B3-A806-A4FE40F6A6DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9D55DD50-034B-46EC-8C3C-4B9948F4383C}"/>
+  <xr:revisionPtr revIDLastSave="350" documentId="8_{B11BF44A-BC13-47B3-A806-A4FE40F6A6DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{22A8B053-9964-4438-9CB7-37036C49A702}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{07B0476E-BC55-49DF-8EAE-3E97C97846C3}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>voltage V</t>
   </si>
@@ -57,6 +57,24 @@
   </si>
   <si>
     <t>unc_b pA</t>
+  </si>
+  <si>
+    <t>current_y pA</t>
+  </si>
+  <si>
+    <t>unc_y pA</t>
+  </si>
+  <si>
+    <t>current_v pA</t>
+  </si>
+  <si>
+    <t>unc_v pA</t>
+  </si>
+  <si>
+    <t>current_uv pA</t>
+  </si>
+  <si>
+    <t>unc_uv pA</t>
   </si>
 </sst>
 </file>
@@ -214,10 +232,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$31</c:f>
+              <c:f>Sheet1!$A$2:$A$37</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>-9</c:v>
                 </c:pt>
@@ -240,72 +258,90 @@
                   <c:v>-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>-2.75</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-2.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-2.25</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>-2</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="11">
                   <c:v>-1.75</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="12">
                   <c:v>-1.5</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="13">
                   <c:v>-1.4</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="14">
                   <c:v>-1.3</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="15">
                   <c:v>-1.25</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="16">
+                  <c:v>-1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>-1</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="18">
+                  <c:v>-0.9</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-0.8</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>-0.75</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="21">
                   <c:v>-0.5</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="22">
                   <c:v>-0.25</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="23">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="24">
                   <c:v>0.25</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="25">
                   <c:v>0.5</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="26">
                   <c:v>0.75</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="27">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="28">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="29">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="30">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="31">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="32">
                   <c:v>6</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="33">
                   <c:v>7</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="34">
                   <c:v>8</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="35">
                   <c:v>9</c:v>
                 </c:pt>
               </c:numCache>
@@ -313,10 +349,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$31</c:f>
+              <c:f>Sheet1!$B$2:$B$37</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>-6.5799999999999997E-2</c:v>
                 </c:pt>
@@ -338,58 +374,58 @@
                 <c:pt idx="6">
                   <c:v>7.8100000000000001E-3</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="10">
                   <c:v>-1.1900000000000001E-4</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="17">
                   <c:v>2.7400000000000001E-2</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="20">
                   <c:v>3.074E-2</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="21">
                   <c:v>0.109</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="22">
                   <c:v>1.724</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="23">
                   <c:v>16.399999999999999</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="24">
                   <c:v>25.312999999999999</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="25">
                   <c:v>82.76</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="26">
                   <c:v>182</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="27">
                   <c:v>276.173</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="28">
                   <c:v>812.29100000000005</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="29">
                   <c:v>1271.481</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="30">
                   <c:v>1543.4490000000001</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="31">
                   <c:v>1690</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="32">
                   <c:v>1733</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="33">
                   <c:v>1840</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="34">
                   <c:v>1905</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="35">
                   <c:v>1840</c:v>
                 </c:pt>
               </c:numCache>
@@ -691,10 +727,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$31</c:f>
+              <c:f>Sheet1!$A$2:$A$37</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>-9</c:v>
                 </c:pt>
@@ -717,72 +753,90 @@
                   <c:v>-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>-2.75</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-2.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-2.25</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>-2</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="11">
                   <c:v>-1.75</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="12">
                   <c:v>-1.5</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="13">
                   <c:v>-1.4</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="14">
                   <c:v>-1.3</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="15">
                   <c:v>-1.25</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="16">
+                  <c:v>-1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>-1</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="18">
+                  <c:v>-0.9</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-0.8</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>-0.75</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="21">
                   <c:v>-0.5</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="22">
                   <c:v>-0.25</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="23">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="24">
                   <c:v>0.25</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="25">
                   <c:v>0.5</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="26">
                   <c:v>0.75</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="27">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="28">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="29">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="30">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="31">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="32">
                   <c:v>6</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="33">
                   <c:v>7</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="34">
                   <c:v>8</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="35">
                   <c:v>9</c:v>
                 </c:pt>
               </c:numCache>
@@ -790,10 +844,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$D$2:$D$31</c:f>
+              <c:f>Sheet1!$D$2:$D$37</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>-8.8400000000000006E-2</c:v>
                 </c:pt>
@@ -816,39 +870,75 @@
                   <c:v>-7.3249999999999996E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>-19.370999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-19.13</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-18.937000000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>-21</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="11">
+                  <c:v>-21.1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-17.954999999999998</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-17.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-14.74</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>5.9880000000000004</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
+                  <c:v>133.21100000000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>607.4</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1046</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4460</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>10949</c:v>
+                </c:pt>
+                <c:pt idx="23">
                   <c:v>18322</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="27">
                   <c:v>69349</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="28">
                   <c:v>138200</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="29">
                   <c:v>203991</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="30">
                   <c:v>237404</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="31">
                   <c:v>291108</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="32">
                   <c:v>316541</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="33">
                   <c:v>338235</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="34">
                   <c:v>351987</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="35">
                   <c:v>370423</c:v>
                 </c:pt>
               </c:numCache>
@@ -1150,10 +1240,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$31</c:f>
+              <c:f>Sheet1!$A$2:$A$37</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>-9</c:v>
                 </c:pt>
@@ -1176,72 +1266,90 @@
                   <c:v>-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>-2.75</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-2.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-2.25</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>-2</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="11">
                   <c:v>-1.75</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="12">
                   <c:v>-1.5</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="13">
                   <c:v>-1.4</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="14">
                   <c:v>-1.3</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="15">
                   <c:v>-1.25</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="16">
+                  <c:v>-1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>-1</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="18">
+                  <c:v>-0.9</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-0.8</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>-0.75</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="21">
                   <c:v>-0.5</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="22">
                   <c:v>-0.25</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="23">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="24">
                   <c:v>0.25</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="25">
                   <c:v>0.5</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="26">
                   <c:v>0.75</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="27">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="28">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="29">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="30">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="31">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="32">
                   <c:v>6</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="33">
                   <c:v>7</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="34">
                   <c:v>8</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="35">
                   <c:v>9</c:v>
                 </c:pt>
               </c:numCache>
@@ -1249,59 +1357,68 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$F$2:$F$31</c:f>
+              <c:f>Sheet1!$F$2:$F$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="30"/>
-                <c:pt idx="7" formatCode="0.00E+00">
+                <c:ptCount val="36"/>
+                <c:pt idx="10" formatCode="0.00E+00">
                   <c:v>-71.722999999999999</c:v>
                 </c:pt>
-                <c:pt idx="8" formatCode="0.00E+00">
+                <c:pt idx="11" formatCode="0.00E+00">
                   <c:v>-63.292999999999999</c:v>
                 </c:pt>
-                <c:pt idx="9" formatCode="0.00E+00">
+                <c:pt idx="12" formatCode="0.00E+00">
                   <c:v>-26.263999999999999</c:v>
                 </c:pt>
-                <c:pt idx="10" formatCode="0.00E+00">
+                <c:pt idx="13" formatCode="0.00E+00">
                   <c:v>55.64</c:v>
                 </c:pt>
-                <c:pt idx="11" formatCode="0.00E+00">
+                <c:pt idx="14" formatCode="0.00E+00">
                   <c:v>292</c:v>
                 </c:pt>
-                <c:pt idx="12" formatCode="0.00E+00">
+                <c:pt idx="15" formatCode="0.00E+00">
                   <c:v>417.12200000000001</c:v>
                 </c:pt>
-                <c:pt idx="13" formatCode="0.00E+00">
-                  <c:v>2101</c:v>
-                </c:pt>
                 <c:pt idx="17" formatCode="0.00E+00">
+                  <c:v>2642</c:v>
+                </c:pt>
+                <c:pt idx="20" formatCode="0.00E+00">
+                  <c:v>5705.4</c:v>
+                </c:pt>
+                <c:pt idx="21" formatCode="0.00E+00">
+                  <c:v>10772</c:v>
+                </c:pt>
+                <c:pt idx="22" formatCode="0.00E+00">
+                  <c:v>16650</c:v>
+                </c:pt>
+                <c:pt idx="23" formatCode="0.00E+00">
                   <c:v>18332</c:v>
                 </c:pt>
-                <c:pt idx="21" formatCode="0.00E+00">
+                <c:pt idx="27" formatCode="0.00E+00">
                   <c:v>58445</c:v>
                 </c:pt>
-                <c:pt idx="22" formatCode="0.00E+00">
+                <c:pt idx="28" formatCode="0.00E+00">
                   <c:v>104154</c:v>
                 </c:pt>
-                <c:pt idx="23" formatCode="0.00E+00">
+                <c:pt idx="29" formatCode="0.00E+00">
                   <c:v>157612</c:v>
                 </c:pt>
-                <c:pt idx="24" formatCode="0.00E+00">
+                <c:pt idx="30" formatCode="0.00E+00">
                   <c:v>195914</c:v>
                 </c:pt>
-                <c:pt idx="25" formatCode="0.00E+00">
+                <c:pt idx="31" formatCode="0.00E+00">
                   <c:v>237790</c:v>
                 </c:pt>
-                <c:pt idx="26" formatCode="0.00E+00">
+                <c:pt idx="32" formatCode="0.00E+00">
                   <c:v>261227</c:v>
                 </c:pt>
-                <c:pt idx="27" formatCode="0.00E+00">
+                <c:pt idx="33" formatCode="0.00E+00">
                   <c:v>303474</c:v>
                 </c:pt>
-                <c:pt idx="28" formatCode="0.00E+00">
+                <c:pt idx="34" formatCode="0.00E+00">
                   <c:v>313690</c:v>
                 </c:pt>
-                <c:pt idx="29" formatCode="0.00E+00">
+                <c:pt idx="35" formatCode="0.00E+00">
                   <c:v>307343</c:v>
                 </c:pt>
               </c:numCache>
@@ -1501,6 +1618,459 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Yellow</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$37</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="36"/>
+                <c:pt idx="0">
+                  <c:v>-9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-2.75</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-2.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-2.25</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-1.75</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-1.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-1.4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-1.3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-1.25</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-0.9</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-0.8</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-0.75</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-0.5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-0.25</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$H$2:$H$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="36"/>
+                <c:pt idx="17" formatCode="0.00E+00">
+                  <c:v>-3.08</c:v>
+                </c:pt>
+                <c:pt idx="23" formatCode="0.00E+00">
+                  <c:v>8001</c:v>
+                </c:pt>
+                <c:pt idx="27" formatCode="0.00E+00">
+                  <c:v>34995</c:v>
+                </c:pt>
+                <c:pt idx="28" formatCode="0.00E+00">
+                  <c:v>67457</c:v>
+                </c:pt>
+                <c:pt idx="29" formatCode="0.00E+00">
+                  <c:v>95180</c:v>
+                </c:pt>
+                <c:pt idx="30" formatCode="0.00E+00">
+                  <c:v>116686</c:v>
+                </c:pt>
+                <c:pt idx="31" formatCode="0.00E+00">
+                  <c:v>130490</c:v>
+                </c:pt>
+                <c:pt idx="32" formatCode="0.00E+00">
+                  <c:v>144387</c:v>
+                </c:pt>
+                <c:pt idx="33" formatCode="0.00E+00">
+                  <c:v>150325</c:v>
+                </c:pt>
+                <c:pt idx="34" formatCode="0.00E+00">
+                  <c:v>158660</c:v>
+                </c:pt>
+                <c:pt idx="35" formatCode="0.00E+00">
+                  <c:v>162163</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2DD3-4B96-B992-01F006C30546}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="402530064"/>
+        <c:axId val="402533424"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="402530064"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="402533424"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="402533424"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="402530064"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1621,6 +2191,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -2654,6 +3264,522 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3210,15 +4336,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>519112</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>138112</xdr:rowOff>
+      <xdr:colOff>339817</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>82083</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>214312</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>23812</xdr:rowOff>
+      <xdr:colOff>35017</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>158283</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3246,15 +4372,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>529758</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>78160</xdr:rowOff>
+      <xdr:colOff>339258</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>190219</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>229440</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>154360</xdr:rowOff>
+      <xdr:colOff>38940</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>75919</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3279,7 +4405,47 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>50426</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>146797</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>386603</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>32497</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BFFB70C7-6054-857E-370A-269641F35DB7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3579,10 +4745,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB67C8DD-21D3-4699-B0C1-1BD02F50B6AE}">
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:M37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Y27" sqref="Y27:Z27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3590,9 +4756,14 @@
     <col min="2" max="2" width="15.7109375" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
     <col min="6" max="6" width="14.140625" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" customWidth="1"/>
+    <col min="10" max="10" width="12.5703125" customWidth="1"/>
+    <col min="12" max="12" width="15.42578125" customWidth="1"/>
+    <col min="13" max="13" width="11.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3614,8 +4785,26 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>-9</v>
       </c>
@@ -3629,11 +4818,11 @@
         <v>-8.8400000000000006E-2</v>
       </c>
       <c r="E2" s="1">
-        <f>D2*0.3</f>
-        <v>-2.6520000000000002E-2</v>
+        <f>-0.0265</f>
+        <v>-2.6499999999999999E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>-8</v>
       </c>
@@ -3647,11 +4836,10 @@
         <v>-8.3419999999999994E-2</v>
       </c>
       <c r="E3" s="1">
-        <f t="shared" ref="E3:E7" si="0">D3*0.3</f>
-        <v>-2.5025999999999996E-2</v>
+        <v>-2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>-7</v>
       </c>
@@ -3665,11 +4853,11 @@
         <v>-7.8200000000000006E-2</v>
       </c>
       <c r="E4" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="E4" si="0">D4*0.3</f>
         <v>-2.3460000000000002E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>-6</v>
       </c>
@@ -3683,11 +4871,10 @@
         <v>-7.8570000000000001E-2</v>
       </c>
       <c r="E5" s="1">
-        <f t="shared" si="0"/>
-        <v>-2.3570999999999998E-2</v>
+        <v>-2.3599999999999999E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>-5</v>
       </c>
@@ -3701,11 +4888,10 @@
         <v>-7.6520000000000005E-2</v>
       </c>
       <c r="E6" s="1">
-        <f t="shared" si="0"/>
-        <v>-2.2956000000000001E-2</v>
+        <v>2.3599999999999999E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>-4</v>
       </c>
@@ -3719,11 +4905,10 @@
         <v>-7.5569999999999998E-2</v>
       </c>
       <c r="E7" s="1">
-        <f t="shared" si="0"/>
-        <v>-2.2671E-2</v>
+        <v>2.2700000000000001E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>-3</v>
       </c>
@@ -3737,423 +4922,600 @@
         <v>-7.3249999999999996E-2</v>
       </c>
       <c r="E8" s="1">
-        <f>D8*0.3</f>
-        <v>-2.1974999999999998E-2</v>
+        <v>2.1999999999999999E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
+        <v>-2.75</v>
+      </c>
+      <c r="D9" s="1">
+        <v>-19.370999999999999</v>
+      </c>
+      <c r="E9" s="1">
+        <v>6.3799999999999996E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>-2.5</v>
+      </c>
+      <c r="D10" s="1">
+        <v>-19.13</v>
+      </c>
+      <c r="E10" s="1">
+        <v>5.8700000000000002E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>-2.25</v>
+      </c>
+      <c r="D11" s="1">
+        <v>-18.937000000000001</v>
+      </c>
+      <c r="E11" s="1">
+        <v>6.0100000000000001E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
         <v>-2</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B12" s="1">
         <v>-1.1900000000000001E-4</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C12" s="1">
         <v>1.8100000000000002E-2</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D12" s="1">
         <v>-21</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E12" s="1">
         <v>-1.0149999999999999</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F12" s="1">
         <v>-71.722999999999999</v>
       </c>
-      <c r="G9" s="1">
+      <c r="G12" s="1">
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
         <v>-1.75</v>
       </c>
-      <c r="F10" s="1">
+      <c r="D13" s="1">
+        <v>-21.1</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0.54700000000000004</v>
+      </c>
+      <c r="F13" s="1">
         <v>-63.292999999999999</v>
       </c>
-      <c r="G10" s="1">
+      <c r="G13" s="1">
         <v>0.217</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
         <v>-1.5</v>
       </c>
-      <c r="F11" s="1">
+      <c r="D14" s="1">
+        <v>-17.954999999999998</v>
+      </c>
+      <c r="E14" s="1">
+        <v>6.0400000000000002E-2</v>
+      </c>
+      <c r="F14" s="1">
         <v>-26.263999999999999</v>
       </c>
-      <c r="G11" s="1">
+      <c r="G14" s="1">
         <v>9.2200000000000004E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
         <v>-1.4</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F15" s="1">
         <v>55.64</v>
       </c>
-      <c r="G12" s="1">
+      <c r="G15" s="1">
         <v>0.33800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
         <v>-1.3</v>
       </c>
-      <c r="F13" s="1">
+      <c r="F16" s="1">
         <v>292</v>
       </c>
-      <c r="G13" s="1">
+      <c r="G16" s="1">
         <v>5.1070000000000002</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
         <v>-1.25</v>
       </c>
-      <c r="F14" s="1">
+      <c r="D17" s="1">
+        <v>-17.5</v>
+      </c>
+      <c r="E17" s="1">
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="F17" s="1">
         <v>417.12200000000001</v>
       </c>
-      <c r="G14" s="1">
+      <c r="G17" s="1">
         <v>2.6619999999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>-1.1000000000000001</v>
+      </c>
+      <c r="D18" s="1">
+        <v>-14.74</v>
+      </c>
+      <c r="E18" s="1">
+        <v>0.44900000000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
         <v>-1</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B19" s="1">
         <v>2.7400000000000001E-2</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C19" s="1">
         <v>1.78E-2</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D19" s="1">
         <v>5.9880000000000004</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E19" s="1">
         <v>0.43</v>
       </c>
-      <c r="F15" s="1">
-        <v>2101</v>
-      </c>
-      <c r="G15" s="1">
+      <c r="F19" s="1">
+        <v>2642</v>
+      </c>
+      <c r="G19" s="1">
         <v>3.2749999999999999</v>
       </c>
+      <c r="H19" s="1">
+        <v>-3.08</v>
+      </c>
+      <c r="I19" s="1">
+        <v>0.17100000000000001</v>
+      </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>-0.9</v>
+      </c>
+      <c r="D20" s="1">
+        <v>133.21100000000001</v>
+      </c>
+      <c r="E20" s="1">
+        <v>0.34399999999999997</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>-0.8</v>
+      </c>
+      <c r="D21" s="1">
+        <v>607.4</v>
+      </c>
+      <c r="E21" s="1">
+        <v>1.905</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
         <v>-0.75</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B22" s="1">
         <v>3.074E-2</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C22" s="1">
         <v>2.5399999999999999E-2</v>
       </c>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
+      <c r="D22" s="1">
+        <v>1046</v>
+      </c>
+      <c r="E22" s="1">
+        <v>17.5</v>
+      </c>
+      <c r="F22" s="1">
+        <v>5705.4</v>
+      </c>
+      <c r="G22" s="1">
+        <v>412</v>
+      </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
         <v>-0.5</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B23" s="1">
         <v>0.109</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C23" s="1">
         <v>1.8100000000000002E-2</v>
       </c>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
+      <c r="D23" s="1">
+        <v>4460</v>
+      </c>
+      <c r="E23" s="1">
+        <v>19.834499999999998</v>
+      </c>
+      <c r="F23" s="1">
+        <v>10772</v>
+      </c>
+      <c r="G23" s="1">
+        <v>168.2</v>
+      </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
         <v>-0.25</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B24" s="1">
         <v>1.724</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C24" s="1">
         <v>4.9700000000000001E-2</v>
       </c>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
+      <c r="D24" s="1">
+        <v>10949</v>
+      </c>
+      <c r="E24" s="1">
+        <v>361</v>
+      </c>
+      <c r="F24" s="1">
+        <v>16650</v>
+      </c>
+      <c r="G24" s="1">
+        <v>46.4</v>
+      </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
         <v>0</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B25" s="1">
         <v>16.399999999999999</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C25" s="1">
         <v>2.2200000000000002</v>
       </c>
-      <c r="D19" s="1">
+      <c r="D25" s="1">
         <v>18322</v>
       </c>
-      <c r="E19" s="1">
+      <c r="E25" s="1">
         <v>1287</v>
       </c>
-      <c r="F19" s="1">
+      <c r="F25" s="1">
         <v>18332</v>
       </c>
-      <c r="G19" s="1">
+      <c r="G25" s="1">
         <v>359</v>
       </c>
+      <c r="H25" s="1">
+        <v>8001</v>
+      </c>
+      <c r="I25" s="1">
+        <v>139</v>
+      </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
         <v>0.25</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B26" s="1">
         <v>25.312999999999999</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C26" s="1">
         <v>1.548</v>
       </c>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
         <v>0.5</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B27" s="1">
         <v>82.76</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C27" s="1">
         <v>0.17199999999999999</v>
       </c>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
         <v>0.75</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B28" s="1">
         <v>182</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C28" s="1">
         <v>11.6</v>
       </c>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
         <v>1</v>
       </c>
-      <c r="B23" s="1">
+      <c r="B29" s="1">
         <v>276.173</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C29" s="1">
         <v>24.677</v>
       </c>
-      <c r="D23" s="1">
+      <c r="D29" s="1">
         <v>69349</v>
       </c>
-      <c r="E23" s="1">
+      <c r="E29" s="1">
         <v>3989</v>
       </c>
-      <c r="F23" s="1">
+      <c r="F29" s="1">
         <v>58445</v>
       </c>
-      <c r="G23" s="1">
+      <c r="G29" s="1">
         <v>269.39999999999998</v>
       </c>
+      <c r="H29" s="1">
+        <v>34995</v>
+      </c>
+      <c r="I29" s="1">
+        <v>625</v>
+      </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
         <v>2</v>
       </c>
-      <c r="B24" s="1">
+      <c r="B30" s="1">
         <v>812.29100000000005</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C30" s="1">
         <v>38.298999999999999</v>
       </c>
-      <c r="D24" s="1">
+      <c r="D30" s="1">
         <v>138200</v>
       </c>
-      <c r="E24" s="1">
+      <c r="E30" s="1">
         <v>5693</v>
       </c>
-      <c r="F24" s="1">
+      <c r="F30" s="1">
         <v>104154</v>
       </c>
-      <c r="G24" s="1">
+      <c r="G30" s="1">
         <v>2844</v>
       </c>
+      <c r="H30" s="1">
+        <v>67457</v>
+      </c>
+      <c r="I30" s="1">
+        <v>2765</v>
+      </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
         <v>3</v>
       </c>
-      <c r="B25" s="1">
+      <c r="B31" s="1">
         <v>1271.481</v>
       </c>
-      <c r="C25" s="1">
+      <c r="C31" s="1">
         <v>36.866</v>
       </c>
-      <c r="D25" s="1">
+      <c r="D31" s="1">
         <v>203991</v>
       </c>
-      <c r="E25" s="1">
+      <c r="E31" s="1">
         <v>11133</v>
       </c>
-      <c r="F25" s="1">
+      <c r="F31" s="1">
         <v>157612</v>
       </c>
-      <c r="G25" s="1">
+      <c r="G31" s="1">
         <v>7544</v>
       </c>
+      <c r="H31" s="1">
+        <v>95180</v>
+      </c>
+      <c r="I31" s="1">
+        <v>3455</v>
+      </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
         <v>4</v>
       </c>
-      <c r="B26" s="1">
+      <c r="B32" s="1">
         <v>1543.4490000000001</v>
       </c>
-      <c r="C26" s="1">
+      <c r="C32" s="1">
         <v>55.62</v>
       </c>
-      <c r="D26" s="1">
+      <c r="D32" s="1">
         <v>237404</v>
       </c>
-      <c r="E26" s="1">
+      <c r="E32" s="1">
         <v>165906</v>
       </c>
-      <c r="F26" s="1">
+      <c r="F32" s="1">
         <v>195914</v>
       </c>
-      <c r="G26" s="1">
+      <c r="G32" s="1">
         <v>3132</v>
       </c>
+      <c r="H32" s="1">
+        <v>116686</v>
+      </c>
+      <c r="I32" s="1">
+        <v>4560</v>
+      </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
         <v>5</v>
       </c>
-      <c r="B27" s="1">
+      <c r="B33" s="1">
         <v>1690</v>
       </c>
-      <c r="C27" s="1">
+      <c r="C33" s="1">
         <v>69.8</v>
       </c>
-      <c r="D27" s="1">
+      <c r="D33" s="1">
         <v>291108</v>
       </c>
-      <c r="E27" s="1">
+      <c r="E33" s="1">
         <v>14824</v>
       </c>
-      <c r="F27" s="1">
+      <c r="F33" s="1">
         <v>237790</v>
       </c>
-      <c r="G27" s="1">
+      <c r="G33" s="1">
         <v>1569</v>
       </c>
+      <c r="H33" s="1">
+        <v>130490</v>
+      </c>
+      <c r="I33" s="1">
+        <v>6819</v>
+      </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
         <v>6</v>
       </c>
-      <c r="B28" s="1">
+      <c r="B34" s="1">
         <v>1733</v>
       </c>
-      <c r="C28" s="1">
+      <c r="C34" s="1">
         <v>93.8</v>
       </c>
-      <c r="D28" s="1">
+      <c r="D34" s="1">
         <v>316541</v>
       </c>
-      <c r="E28" s="1">
+      <c r="E34" s="1">
         <v>18162</v>
       </c>
-      <c r="F28" s="1">
+      <c r="F34" s="1">
         <v>261227</v>
       </c>
-      <c r="G28" s="1">
+      <c r="G34" s="1">
         <v>8785</v>
       </c>
+      <c r="H34" s="1">
+        <v>144387</v>
+      </c>
+      <c r="I34" s="1">
+        <v>7902</v>
+      </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
         <v>7</v>
       </c>
-      <c r="B29" s="1">
+      <c r="B35" s="1">
         <v>1840</v>
       </c>
-      <c r="C29" s="1">
+      <c r="C35" s="1">
         <v>101</v>
       </c>
-      <c r="D29" s="1">
+      <c r="D35" s="1">
         <v>338235</v>
       </c>
-      <c r="E29" s="1">
+      <c r="E35" s="1">
         <v>18083</v>
       </c>
-      <c r="F29" s="1">
+      <c r="F35" s="1">
         <v>303474</v>
       </c>
-      <c r="G29" s="1">
+      <c r="G35" s="1">
         <v>4688</v>
       </c>
+      <c r="H35" s="1">
+        <v>150325</v>
+      </c>
+      <c r="I35" s="1">
+        <v>4971</v>
+      </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
         <v>8</v>
       </c>
-      <c r="B30" s="1">
+      <c r="B36" s="1">
         <v>1905</v>
       </c>
-      <c r="C30" s="1">
+      <c r="C36" s="1">
         <v>56.2</v>
       </c>
-      <c r="D30" s="1">
+      <c r="D36" s="1">
         <v>351987</v>
       </c>
-      <c r="E30" s="1">
+      <c r="E36" s="1">
         <v>20305</v>
       </c>
-      <c r="F30" s="1">
+      <c r="F36" s="1">
         <v>313690</v>
       </c>
-      <c r="G30" s="1">
+      <c r="G36" s="1">
         <v>12206</v>
       </c>
+      <c r="H36" s="1">
+        <v>158660</v>
+      </c>
+      <c r="I36" s="1">
+        <v>417</v>
+      </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="1">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
         <v>9</v>
       </c>
-      <c r="B31" s="1">
+      <c r="B37" s="1">
         <v>1840</v>
       </c>
-      <c r="C31" s="1">
+      <c r="C37" s="1">
         <v>25.2</v>
       </c>
-      <c r="D31" s="1">
+      <c r="D37" s="1">
         <v>370423</v>
       </c>
-      <c r="E31" s="1">
-        <f>D31*0.3</f>
+      <c r="E37" s="1">
+        <f>D37*0.3</f>
         <v>111126.9</v>
       </c>
-      <c r="F31" s="1">
+      <c r="F37" s="1">
         <v>307343</v>
       </c>
-      <c r="G31" s="1">
+      <c r="G37" s="1">
         <v>5832</v>
+      </c>
+      <c r="H37" s="1">
+        <v>162163</v>
+      </c>
+      <c r="I37" s="1">
+        <v>4.9669999999999996</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Filters.xlsx
+++ b/Data/Filters.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://imperiallondon-my.sharepoint.com/personal/pf522_ic_ac_uk/Documents/lab3/Photoelectric/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="350" documentId="8_{B11BF44A-BC13-47B3-A806-A4FE40F6A6DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{22A8B053-9964-4438-9CB7-37036C49A702}"/>
+  <xr:revisionPtr revIDLastSave="368" documentId="8_{B11BF44A-BC13-47B3-A806-A4FE40F6A6DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ADFE5122-626B-4B8A-B975-9DE50EF608D6}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{07B0476E-BC55-49DF-8EAE-3E97C97846C3}"/>
   </bookViews>
@@ -1392,7 +1392,7 @@
                   <c:v>16650</c:v>
                 </c:pt>
                 <c:pt idx="23" formatCode="0.00E+00">
-                  <c:v>18332</c:v>
+                  <c:v>23432</c:v>
                 </c:pt>
                 <c:pt idx="27" formatCode="0.00E+00">
                   <c:v>58445</c:v>
@@ -1841,8 +1841,26 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="36"/>
+                <c:pt idx="10" formatCode="0.00E+00">
+                  <c:v>-1.361</c:v>
+                </c:pt>
                 <c:pt idx="17" formatCode="0.00E+00">
                   <c:v>-3.08</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6.7190000000000003</c:v>
+                </c:pt>
+                <c:pt idx="19" formatCode="0.00E+00">
+                  <c:v>59.1</c:v>
+                </c:pt>
+                <c:pt idx="20" formatCode="0.00E+00">
+                  <c:v>140.9</c:v>
+                </c:pt>
+                <c:pt idx="21" formatCode="0.00E+00">
+                  <c:v>1403</c:v>
+                </c:pt>
+                <c:pt idx="22" formatCode="0.00E+00">
+                  <c:v>3494</c:v>
                 </c:pt>
                 <c:pt idx="23" formatCode="0.00E+00">
                   <c:v>8001</c:v>
@@ -4748,7 +4766,7 @@
   <dimension ref="A1:M37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Y27" sqref="Y27:Z27"/>
+      <selection activeCell="M26" sqref="M26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4980,6 +4998,12 @@
       <c r="G12" s="1">
         <v>8.3000000000000004E-2</v>
       </c>
+      <c r="H12" s="1">
+        <v>-1.361</v>
+      </c>
+      <c r="I12" s="1">
+        <v>0.115</v>
+      </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
@@ -5104,6 +5128,12 @@
       <c r="E20" s="1">
         <v>0.34399999999999997</v>
       </c>
+      <c r="H20">
+        <v>6.7190000000000003</v>
+      </c>
+      <c r="I20">
+        <v>7.6600000000000001E-2</v>
+      </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
@@ -5115,6 +5145,12 @@
       <c r="E21" s="1">
         <v>1.905</v>
       </c>
+      <c r="H21" s="1">
+        <v>59.1</v>
+      </c>
+      <c r="I21">
+        <v>1.9059999999999999</v>
+      </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
@@ -5138,6 +5174,12 @@
       <c r="G22" s="1">
         <v>412</v>
       </c>
+      <c r="H22" s="1">
+        <v>140.9</v>
+      </c>
+      <c r="I22" s="1">
+        <v>0.94399999999999995</v>
+      </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
@@ -5161,6 +5203,12 @@
       <c r="G23" s="1">
         <v>168.2</v>
       </c>
+      <c r="H23" s="1">
+        <v>1403</v>
+      </c>
+      <c r="I23" s="1">
+        <v>57.9</v>
+      </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
@@ -5184,6 +5232,12 @@
       <c r="G24" s="1">
         <v>46.4</v>
       </c>
+      <c r="H24" s="1">
+        <v>3494</v>
+      </c>
+      <c r="I24" s="1">
+        <v>196</v>
+      </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
@@ -5202,7 +5256,7 @@
         <v>1287</v>
       </c>
       <c r="F25" s="1">
-        <v>18332</v>
+        <v>23432</v>
       </c>
       <c r="G25" s="1">
         <v>359</v>

--- a/Data/Filters.xlsx
+++ b/Data/Filters.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28207"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://imperiallondon-my.sharepoint.com/personal/pf522_ic_ac_uk/Documents/lab3/Photoelectric/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="444" documentId="8_{B11BF44A-BC13-47B3-A806-A4FE40F6A6DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F23A843D-FA17-4246-A5A5-C10707E2C00A}"/>
+  <xr:revisionPtr revIDLastSave="492" documentId="8_{B11BF44A-BC13-47B3-A806-A4FE40F6A6DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DA32DD1E-7181-4816-B0EF-A8992252648A}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{07B0476E-BC55-49DF-8EAE-3E97C97846C3}"/>
   </bookViews>
@@ -81,7 +81,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -128,6 +128,1064 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$40</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="39"/>
+                <c:pt idx="0">
+                  <c:v>-9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-2.75</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-2.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-2.25</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-1.75</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-1.65</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-1.6</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-1.55</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-1.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-1.4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-1.3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-1.25</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-0.9</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-0.8</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-0.75</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-0.5</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-0.25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$L$2:$L$40</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="39"/>
+                <c:pt idx="6">
+                  <c:v>-71.989000000000004</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-15.7</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>328</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1194</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2685</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4909</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>7694</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>11448</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>15987</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>22094</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>51651</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>94253</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>138109</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>183417</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>213852</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>247225</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>263408</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>282997</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>296766</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-69BD-4FA3-B885-194B49D8FEA5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="837612271"/>
+        <c:axId val="837611311"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="837612271"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="837611311"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="837611311"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="837612271"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>72837</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>158002</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>409013</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>43702</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23445DC8-A973-1D80-6D3B-6DEBA0445D9E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -429,11 +1487,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB67C8DD-21D3-4699-B0C1-1BD02F50B6AE}">
   <dimension ref="A1:M40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K41" sqref="K41"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2:M40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.7109375" customWidth="1"/>
@@ -447,7 +1505,7 @@
     <col min="13" max="13" width="11.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -488,7 +1546,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>-9</v>
       </c>
@@ -502,11 +1560,12 @@
         <v>-8.8400000000000006E-2</v>
       </c>
       <c r="E2" s="1">
-        <f>-0.0265</f>
-        <v>-2.6499999999999999E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>2.6499999999999999E-2</v>
+      </c>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>-8</v>
       </c>
@@ -520,10 +1579,12 @@
         <v>-8.3419999999999994E-2</v>
       </c>
       <c r="E3" s="1">
-        <v>-2.5000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>-7</v>
       </c>
@@ -540,8 +1601,10 @@
         <f t="shared" ref="E4" si="0">D4*0.3</f>
         <v>-2.3460000000000002E-2</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>-6</v>
       </c>
@@ -557,8 +1620,10 @@
       <c r="E5" s="1">
         <v>-2.3599999999999999E-2</v>
       </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>-5</v>
       </c>
@@ -574,8 +1639,10 @@
       <c r="E6" s="1">
         <v>2.3599999999999999E-2</v>
       </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>-4</v>
       </c>
@@ -591,8 +1658,10 @@
       <c r="E7" s="1">
         <v>2.2700000000000001E-2</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>-3</v>
       </c>
@@ -614,8 +1683,14 @@
       <c r="K8">
         <v>4.6899999999999997E-2</v>
       </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="L8" s="1">
+        <v>-71.989000000000004</v>
+      </c>
+      <c r="M8" s="1">
+        <v>3.4129999999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>-2.75</v>
       </c>
@@ -625,8 +1700,10 @@
       <c r="E9" s="1">
         <v>6.3799999999999996E-2</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>-2.5</v>
       </c>
@@ -636,8 +1713,10 @@
       <c r="E10" s="1">
         <v>5.8700000000000002E-2</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>-2.25</v>
       </c>
@@ -647,8 +1726,10 @@
       <c r="E11" s="1">
         <v>6.0100000000000001E-2</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>-2</v>
       </c>
@@ -682,8 +1763,14 @@
       <c r="K12">
         <v>0.58919999999999995</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="L12" s="1">
+        <v>-15.7</v>
+      </c>
+      <c r="M12" s="1">
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>-1.75</v>
       </c>
@@ -702,8 +1789,14 @@
       <c r="J13">
         <v>-1.1778</v>
       </c>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="L13" s="1">
+        <v>328</v>
+      </c>
+      <c r="M13" s="1">
+        <v>11.2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>-1.65</v>
       </c>
@@ -717,8 +1810,10 @@
       <c r="K14">
         <v>0.1409</v>
       </c>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>-1.6</v>
       </c>
@@ -732,8 +1827,10 @@
       <c r="K15">
         <v>0.35670000000000002</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>-1.55</v>
       </c>
@@ -747,8 +1844,10 @@
       <c r="K16">
         <v>1.3641000000000001</v>
       </c>
-    </row>
-    <row r="17" spans="1:11">
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>-1.5</v>
       </c>
@@ -770,8 +1869,14 @@
       <c r="K17">
         <v>0.21290000000000001</v>
       </c>
-    </row>
-    <row r="18" spans="1:11">
+      <c r="L17" s="1">
+        <v>1194</v>
+      </c>
+      <c r="M17" s="1">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>-1.4</v>
       </c>
@@ -781,8 +1886,10 @@
       <c r="G18" s="1">
         <v>0.33800000000000002</v>
       </c>
-    </row>
-    <row r="19" spans="1:11">
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>-1.3</v>
       </c>
@@ -792,8 +1899,10 @@
       <c r="G19" s="1">
         <v>5.1070000000000002</v>
       </c>
-    </row>
-    <row r="20" spans="1:11">
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>-1.25</v>
       </c>
@@ -809,8 +1918,14 @@
       <c r="G20" s="1">
         <v>2.6619999999999999</v>
       </c>
-    </row>
-    <row r="21" spans="1:11">
+      <c r="L20" s="1">
+        <v>2685</v>
+      </c>
+      <c r="M20" s="1">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>-1.1000000000000001</v>
       </c>
@@ -820,8 +1935,10 @@
       <c r="E21" s="1">
         <v>0.44900000000000001</v>
       </c>
-    </row>
-    <row r="22" spans="1:11">
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>-1</v>
       </c>
@@ -855,8 +1972,14 @@
       <c r="K22">
         <v>25.52</v>
       </c>
-    </row>
-    <row r="23" spans="1:11">
+      <c r="L22" s="1">
+        <v>4909</v>
+      </c>
+      <c r="M22" s="1">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>-0.9</v>
       </c>
@@ -872,8 +1995,10 @@
       <c r="I23">
         <v>7.6600000000000001E-2</v>
       </c>
-    </row>
-    <row r="24" spans="1:11">
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>-0.8</v>
       </c>
@@ -889,8 +2014,10 @@
       <c r="I24">
         <v>1.9059999999999999</v>
       </c>
-    </row>
-    <row r="25" spans="1:11">
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>-0.75</v>
       </c>
@@ -918,8 +2045,14 @@
       <c r="I25" s="1">
         <v>0.94399999999999995</v>
       </c>
-    </row>
-    <row r="26" spans="1:11">
+      <c r="L25" s="1">
+        <v>7694</v>
+      </c>
+      <c r="M25" s="1">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>-0.5</v>
       </c>
@@ -947,8 +2080,14 @@
       <c r="I26" s="1">
         <v>57.9</v>
       </c>
-    </row>
-    <row r="27" spans="1:11">
+      <c r="L26" s="1">
+        <v>11448</v>
+      </c>
+      <c r="M26" s="1">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>-0.25</v>
       </c>
@@ -976,8 +2115,15 @@
       <c r="I27" s="1">
         <v>196</v>
       </c>
-    </row>
-    <row r="28" spans="1:11">
+      <c r="K27" s="1"/>
+      <c r="L27" s="1">
+        <v>15987</v>
+      </c>
+      <c r="M27" s="1">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>0</v>
       </c>
@@ -1011,8 +2157,14 @@
       <c r="K28">
         <v>203.28</v>
       </c>
-    </row>
-    <row r="29" spans="1:11">
+      <c r="L28" s="1">
+        <v>22094</v>
+      </c>
+      <c r="M28" s="1">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>0.25</v>
       </c>
@@ -1025,8 +2177,10 @@
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
-    </row>
-    <row r="30" spans="1:11">
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>0.5</v>
       </c>
@@ -1039,8 +2193,10 @@
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
-    </row>
-    <row r="31" spans="1:11">
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>0.75</v>
       </c>
@@ -1054,7 +2210,7 @@
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>1</v>
       </c>
@@ -1088,8 +2244,14 @@
       <c r="K32">
         <v>478.166</v>
       </c>
-    </row>
-    <row r="33" spans="1:11">
+      <c r="L32" s="1">
+        <v>51651</v>
+      </c>
+      <c r="M32" s="1">
+        <v>2264</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>2</v>
       </c>
@@ -1123,8 +2285,14 @@
       <c r="K33">
         <v>271.24</v>
       </c>
-    </row>
-    <row r="34" spans="1:11">
+      <c r="L33" s="1">
+        <v>94253</v>
+      </c>
+      <c r="M33" s="1">
+        <v>5476</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>3</v>
       </c>
@@ -1158,8 +2326,14 @@
       <c r="K34">
         <v>1203.7380000000001</v>
       </c>
-    </row>
-    <row r="35" spans="1:11">
+      <c r="L34" s="1">
+        <v>138109</v>
+      </c>
+      <c r="M34" s="1">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>4</v>
       </c>
@@ -1193,8 +2367,14 @@
       <c r="K35">
         <v>2228.59</v>
       </c>
-    </row>
-    <row r="36" spans="1:11">
+      <c r="L35" s="1">
+        <v>183417</v>
+      </c>
+      <c r="M35" s="1">
+        <v>6446</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>5</v>
       </c>
@@ -1228,8 +2408,14 @@
       <c r="K36">
         <v>544.71400000000006</v>
       </c>
-    </row>
-    <row r="37" spans="1:11">
+      <c r="L36" s="1">
+        <v>213852</v>
+      </c>
+      <c r="M36" s="1">
+        <v>1499</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>6</v>
       </c>
@@ -1263,8 +2449,14 @@
       <c r="K37">
         <v>2128.9</v>
       </c>
-    </row>
-    <row r="38" spans="1:11">
+      <c r="L37" s="1">
+        <v>247225</v>
+      </c>
+      <c r="M37" s="1">
+        <v>9598</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>7</v>
       </c>
@@ -1298,8 +2490,14 @@
       <c r="K38">
         <v>3597.9</v>
       </c>
-    </row>
-    <row r="39" spans="1:11">
+      <c r="L38" s="1">
+        <v>263408</v>
+      </c>
+      <c r="M38" s="1">
+        <v>2160</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>8</v>
       </c>
@@ -1333,8 +2531,14 @@
       <c r="K39">
         <v>350.255</v>
       </c>
-    </row>
-    <row r="40" spans="1:11">
+      <c r="L39" s="1">
+        <v>282997</v>
+      </c>
+      <c r="M39" s="1">
+        <v>3841</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>9</v>
       </c>
@@ -1369,8 +2573,15 @@
       <c r="K40">
         <v>3423.6570000000002</v>
       </c>
+      <c r="L40" s="1">
+        <v>296766</v>
+      </c>
+      <c r="M40" s="1">
+        <v>1385</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Data/Filters.xlsx
+++ b/Data/Filters.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://imperiallondon-my.sharepoint.com/personal/pf522_ic_ac_uk/Documents/lab3/Photoelectric/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="492" documentId="8_{B11BF44A-BC13-47B3-A806-A4FE40F6A6DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DA32DD1E-7181-4816-B0EF-A8992252648A}"/>
+  <xr:revisionPtr revIDLastSave="500" documentId="8_{B11BF44A-BC13-47B3-A806-A4FE40F6A6DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8DD4D3FB-41A3-4A24-9E70-403A5CA2B087}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{07B0476E-BC55-49DF-8EAE-3E97C97846C3}"/>
   </bookViews>
@@ -591,7 +591,502 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$40</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="39"/>
+                <c:pt idx="0">
+                  <c:v>-9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-2.75</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-2.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-2.25</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-1.75</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-1.65</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-1.6</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-1.55</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-1.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-1.4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-1.3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-1.25</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-0.9</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-0.8</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-0.75</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-0.5</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-0.25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$H$2:$H$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="39"/>
+                <c:pt idx="10" formatCode="0.00E+00">
+                  <c:v>-3.0001000000000002</c:v>
+                </c:pt>
+                <c:pt idx="20" formatCode="0.00E+00">
+                  <c:v>-1.8360000000000001</c:v>
+                </c:pt>
+                <c:pt idx="21" formatCode="0.00E+00">
+                  <c:v>6.7190000000000003</c:v>
+                </c:pt>
+                <c:pt idx="22" formatCode="0.00E+00">
+                  <c:v>59.1</c:v>
+                </c:pt>
+                <c:pt idx="23" formatCode="0.00E+00">
+                  <c:v>140.9</c:v>
+                </c:pt>
+                <c:pt idx="24" formatCode="0.00E+00">
+                  <c:v>1403</c:v>
+                </c:pt>
+                <c:pt idx="25" formatCode="0.00E+00">
+                  <c:v>3494</c:v>
+                </c:pt>
+                <c:pt idx="26" formatCode="0.00E+00">
+                  <c:v>8001</c:v>
+                </c:pt>
+                <c:pt idx="30" formatCode="0.00E+00">
+                  <c:v>34995</c:v>
+                </c:pt>
+                <c:pt idx="31" formatCode="0.00E+00">
+                  <c:v>67457</c:v>
+                </c:pt>
+                <c:pt idx="32" formatCode="0.00E+00">
+                  <c:v>95180</c:v>
+                </c:pt>
+                <c:pt idx="33" formatCode="0.00E+00">
+                  <c:v>116686</c:v>
+                </c:pt>
+                <c:pt idx="34" formatCode="0.00E+00">
+                  <c:v>130490</c:v>
+                </c:pt>
+                <c:pt idx="35" formatCode="0.00E+00">
+                  <c:v>144387</c:v>
+                </c:pt>
+                <c:pt idx="36" formatCode="0.00E+00">
+                  <c:v>150325</c:v>
+                </c:pt>
+                <c:pt idx="37" formatCode="0.00E+00">
+                  <c:v>158660</c:v>
+                </c:pt>
+                <c:pt idx="38" formatCode="0.00E+00">
+                  <c:v>162163</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4FA6-421E-ACA5-3F938D76B8CA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1443090016"/>
+        <c:axId val="1721653616"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1443090016"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1721653616"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1721653616"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1443090016"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1147,6 +1642,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -1180,6 +2191,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>330573</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>90767</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>61632</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>166967</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55BD8473-F2D6-835E-B866-B858415D4F03}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1488,7 +2535,7 @@
   <dimension ref="A1:M40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2:M40"/>
+      <selection activeCell="L36" sqref="L36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1666,7 +2713,7 @@
         <v>-3</v>
       </c>
       <c r="B8" s="1">
-        <v>7.8100000000000001E-3</v>
+        <v>-7.8100000000000001E-3</v>
       </c>
       <c r="C8" s="1">
         <v>2.4199999999999999E-2</v>
@@ -1752,10 +2799,10 @@
         <v>8.3000000000000004E-2</v>
       </c>
       <c r="H12" s="1">
-        <v>-1.361</v>
+        <v>-3.0001000000000002</v>
       </c>
       <c r="I12" s="1">
-        <v>0.115</v>
+        <v>0.26600000000000001</v>
       </c>
       <c r="J12">
         <v>-4.3810000000000002</v>
@@ -1961,7 +3008,7 @@
         <v>3.2749999999999999</v>
       </c>
       <c r="H22" s="1">
-        <v>-3.08</v>
+        <v>-1.8360000000000001</v>
       </c>
       <c r="I22" s="1">
         <v>0.17100000000000001</v>
@@ -1989,7 +3036,7 @@
       <c r="E23" s="1">
         <v>0.34399999999999997</v>
       </c>
-      <c r="H23">
+      <c r="H23" s="1">
         <v>6.7190000000000003</v>
       </c>
       <c r="I23">

--- a/Data/Filters.xlsx
+++ b/Data/Filters.xlsx
@@ -2535,7 +2535,7 @@
   <dimension ref="A1:M40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L36" sqref="L36"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
